--- a/data/income_statement/2digits/size/41_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/41_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>41-Construction of buildings</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>41-Construction of buildings</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1172 +841,1322 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>15752623.26219</v>
+        <v>13494443.01074</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>15425654.27576</v>
+        <v>12759122.23811</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>23565723.35109</v>
+        <v>20555433.46661</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>31382662.42099</v>
+        <v>27649563.57651</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>30894583.29887</v>
+        <v>26999109.16209</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>39992998.62812</v>
+        <v>35804602.08130001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>39315590.74479</v>
+        <v>37098129.61808001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>58190348.37917</v>
+        <v>48653418.24642</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>80301752.78733</v>
+        <v>67686516.03373</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>70996328.26084001</v>
+        <v>59224738.65694001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>74569344.93017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>60680722.73992</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>73197729.7</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>15011675.48103</v>
+        <v>12999859.68575</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>14138005.30462</v>
+        <v>11752382.45103</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>21032643.09942</v>
+        <v>18310535.12537</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>28538394.20322</v>
+        <v>25105211.55782</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>28573057.47793</v>
+        <v>25076386.21636</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>37156490.67345</v>
+        <v>33438322.39438</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>37002771.00883999</v>
+        <v>35142009.66745</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>54305973.21516</v>
+        <v>45510987.39141</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>75377192.40980999</v>
+        <v>63798798.094</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>65753378.61612999</v>
+        <v>55041631.58278</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>69545187.81262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>57120761.87314</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>69268063.351</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>541207.55487</v>
+        <v>398449.6884</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1014346.46028</v>
+        <v>869611.0277999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2043457.49835</v>
+        <v>1857000.01278</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2421332.87831</v>
+        <v>2273388.0644</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1691241.97427</v>
+        <v>1482124.51941</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2056669.56877</v>
+        <v>1809374.74709</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1359652.85642</v>
+        <v>1255968.86515</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2651835.70861</v>
+        <v>2363656.07473</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3215431.28331</v>
+        <v>2784100.87145</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4106429.69897</v>
+        <v>3619287.65014</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3291311.87554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2468561.05386</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3228017.777</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>199740.22629</v>
+        <v>96133.63659000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>273302.51086</v>
+        <v>137128.75928</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>489622.75332</v>
+        <v>387898.32846</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>422935.33946</v>
+        <v>270963.95429</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>630283.8466700001</v>
+        <v>440598.42632</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>779838.3859</v>
+        <v>556904.93983</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>953166.8795299999</v>
+        <v>700151.08548</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1232539.4554</v>
+        <v>778774.7802799999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1709129.09421</v>
+        <v>1103617.06828</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1136519.94574</v>
+        <v>563819.42402</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1732845.24201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1091399.81292</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>701648.572</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>59580.23305</v>
+        <v>38821.58952</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>36929.60539</v>
+        <v>27206.07612</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>54531.89621</v>
+        <v>39891.77276</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>111403.42156</v>
+        <v>92552.20746999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>129869.35871</v>
+        <v>108695.31279</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>422635.97219</v>
+        <v>327103.05708</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>224893.38326</v>
+        <v>215411.65571</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>637056.5318699999</v>
+        <v>505662.65726</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>861760.33202</v>
+        <v>746199.5433200001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>769531.14328</v>
+        <v>534454.6318999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>705336.0341599999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>506139.28849</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>526031.718</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>47819.90314</v>
+        <v>31062.69944</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>25256.94706</v>
+        <v>18386.36775</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>40714.89035</v>
+        <v>29802.92081</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>86804.85936</v>
+        <v>71649.17402999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>91041.44487000001</v>
+        <v>73996.51784999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>361749.5345</v>
+        <v>275371.5812</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>126144.23179</v>
+        <v>126492.46528</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>519040.6865</v>
+        <v>405597.48655</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>697213.31628</v>
+        <v>600299.0579</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>558865.27688</v>
+        <v>375077.3341</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>547136.50506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>393279.93265</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>366137.603</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6541.50248</v>
+        <v>4223.66601</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>10746.95043</v>
+        <v>8092.10454</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>10876.0203</v>
+        <v>8063.93565</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>22448.81878</v>
+        <v>19358.07484</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>32582.31631</v>
+        <v>28532.18503</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>58018.15264</v>
+        <v>49306.85394</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>87857.76967000001</v>
+        <v>85586.73744</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>107710.65316</v>
+        <v>97126.08073999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>143663.55104</v>
+        <v>130976.83785</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>133645.42892</v>
+        <v>87229.73995</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>109223.10806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>83746.60120999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>106128.727</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5218.827429999999</v>
+        <v>3535.22407</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>925.7079</v>
+        <v>727.6038299999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2940.98556</v>
+        <v>2024.9163</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2149.74342</v>
+        <v>1544.9586</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6245.59753</v>
+        <v>6166.60991</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2868.28505</v>
+        <v>2424.62194</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10891.3818</v>
+        <v>3332.45299</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>10305.19221</v>
+        <v>2939.08997</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>20883.4647</v>
+        <v>14923.64757</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>77020.43748000001</v>
+        <v>72147.55785</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>48976.42104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>29112.75463</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>53765.388</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>15693043.02914</v>
+        <v>13455621.42122</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>15388724.67037</v>
+        <v>12731916.16199</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>23511191.45488</v>
+        <v>20515541.69385</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>31271258.99943</v>
+        <v>27557011.36904</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>30764713.94016</v>
+        <v>26890413.8493</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>39570362.65593</v>
+        <v>35477499.02422</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>39090697.36153</v>
+        <v>36882717.96237</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>57553291.8473</v>
+        <v>48147755.58916</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>79439992.45531</v>
+        <v>66940316.49040999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>70226797.11756</v>
+        <v>58690284.02504</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>73864008.89601001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>60174583.45143</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>72671697.98199999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>13608782.71682</v>
+        <v>11783399.56449</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>13210566.17178</v>
+        <v>11062716.53277</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>19716979.9119</v>
+        <v>17380495.77247</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>26925069.03163</v>
+        <v>24054746.96345</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>26410828.33005</v>
+        <v>23238147.74306</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>35019588.25105</v>
+        <v>32226522.90753</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>33290048.71672</v>
+        <v>32352724.16637</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>50319068.99409001</v>
+        <v>42894906.08075</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>67800793.42916</v>
+        <v>57910125.99077</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>59656998.5263</v>
+        <v>51133820.11929</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>59589936.7941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>49608605.62544</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>62167833.258</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4327306.07315</v>
+        <v>3836085.83119</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3220753.0937</v>
+        <v>2682960.89396</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5673443.703980001</v>
+        <v>4956101.54161</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8949689.621850001</v>
+        <v>7737112.256390001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8405648.474879999</v>
+        <v>7600335.41169</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11780236.30861</v>
+        <v>11111017.15898</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>12246257.16537</v>
+        <v>11003799.05557</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>18772776.29611</v>
+        <v>15887091.95195</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>24910280.78635</v>
+        <v>20858562.79692</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>20186937.65731</v>
+        <v>16845337.29624</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>17317844.8588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13990791.94268</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15024906.368</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1323833.58808</v>
+        <v>1001846.27177</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2004579.42726</v>
+        <v>1655167.31663</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2814257.17847</v>
+        <v>2349338.92701</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3651772.35243</v>
+        <v>3307065.44407</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4127586.42529</v>
+        <v>3511170.00684</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3141937.53802</v>
+        <v>2402822.2507</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4625207.278510001</v>
+        <v>4284142.894760001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7837070.34481</v>
+        <v>6441988.11287</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>10830513.76857</v>
+        <v>9030895.466320001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>8457865.93354</v>
+        <v>6941720.95184</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>7880067.335109999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5702468.28645</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6452440.629</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7769386.75018</v>
+        <v>6797140.286979999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7714054.65068</v>
+        <v>6509022.677159999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>10823687.46394</v>
+        <v>9708072.44899</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>13254389.69487</v>
+        <v>11970459.42902</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>13252854.20588</v>
+        <v>11535764.4138</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>18192402.13306</v>
+        <v>16746847.98848</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>15949154.64088</v>
+        <v>16617618.43341</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>23016582.27263</v>
+        <v>19987286.34371</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>31196508.72691</v>
+        <v>27318134.51132</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>30367458.14186</v>
+        <v>26896889.09421</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>33429123.87462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>29210724.8377</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>40519608.207</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>188256.30541</v>
+        <v>148327.17455</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>271179.00014</v>
+        <v>215565.64502</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>405591.56551</v>
+        <v>366982.85486</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1069217.36248</v>
+        <v>1040109.83397</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>624739.224</v>
+        <v>590877.91073</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1905012.27136</v>
+        <v>1965835.50937</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>469429.63196</v>
+        <v>447163.78263</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>692640.08054</v>
+        <v>578539.6722200001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>863490.1473300001</v>
+        <v>702533.21621</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>644736.79359</v>
+        <v>449872.777</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>962900.72557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>704620.5586100001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>170878.054</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2084260.31232</v>
+        <v>1672221.85673</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2178158.49859</v>
+        <v>1669199.62922</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3794211.54298</v>
+        <v>3135045.92138</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4346189.967799999</v>
+        <v>3502264.40559</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4353885.610110001</v>
+        <v>3652266.10624</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4550774.40488</v>
+        <v>3250976.11669</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5800648.64481</v>
+        <v>4529993.796</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7234222.85321</v>
+        <v>5252849.50841</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>11639199.02615</v>
+        <v>9030190.499639999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>10569798.59126</v>
+        <v>7556463.90575</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14274072.10191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10565977.82599</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10503864.724</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>859181.75736</v>
+        <v>488736.0433500001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1054618.42305</v>
+        <v>567628.35747</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1619572.97128</v>
+        <v>913115.14488</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1812756.3823</v>
+        <v>1105677.0365</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1958023.28811</v>
+        <v>1177523.34065</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2522522.2846</v>
+        <v>1510295.33533</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2645476.82983</v>
+        <v>1716278.57752</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3772045.33074</v>
+        <v>2183129.94959</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>5260560.24546</v>
+        <v>3347548.066</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4735638.51569</v>
+        <v>2822797.75635</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5205341.54734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2843818.2366</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3105263.634</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>4628.37638</v>
+        <v>4553.34307</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1198.17811</v>
+        <v>1039.75693</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>913.09426</v>
+        <v>753.5161999999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2825.04591</v>
+        <v>2263.27606</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6072.41108</v>
+        <v>2410.66161</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2748.88424</v>
+        <v>2545.52014</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1391.59651</v>
+        <v>1292.08419</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7476.54721</v>
+        <v>7454.83045</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5256.21528</v>
+        <v>1092.05818</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>1813.12825</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5627.73729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4750.16545</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3963.635</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>161123.19353</v>
+        <v>112650.52007</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>205881.96285</v>
+        <v>130922.74714</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>342609.73677</v>
+        <v>242025.71471</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>395032.13595</v>
+        <v>257480.79324</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>452858.38916</v>
+        <v>319165.60136</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>549044.76478</v>
+        <v>383905.96233</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>529347.26251</v>
+        <v>427653.88086</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>796905.41605</v>
+        <v>592552.6875499999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1047077.66666</v>
+        <v>745302.10005</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>994661.69198</v>
+        <v>660314.74191</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1048128.02829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>755962.9613</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>777282.335</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>693430.18745</v>
+        <v>371532.18021</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>847538.28209</v>
+        <v>435665.8534</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1276050.14025</v>
+        <v>670335.91397</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1414899.20044</v>
+        <v>845932.9672</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1499092.48787</v>
+        <v>855947.07768</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1970728.63558</v>
+        <v>1123843.85286</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2114737.97081</v>
+        <v>1287332.61247</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2967663.36748</v>
+        <v>1583122.43159</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4208226.36352</v>
+        <v>2601153.90777</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3739163.69546</v>
+        <v>2160669.88619</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4151585.78176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2083105.10985</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2324017.664</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1225078.55496</v>
+        <v>1183485.81338</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1123540.07554</v>
+        <v>1101571.27175</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2174638.5717</v>
+        <v>2221930.7765</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2533433.5855</v>
+        <v>2396587.36909</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2395862.322</v>
+        <v>2474742.76559</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2028252.12028</v>
+        <v>1740680.78136</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3155171.81498</v>
+        <v>2813715.21848</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3462177.52247</v>
+        <v>3069719.55882</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6378638.78069</v>
+        <v>5682642.433639999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5834160.07557</v>
+        <v>4733666.1494</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9068730.554570001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7722159.58939</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>7398601.09</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2351353.79246</v>
+        <v>928212.43316</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2842198.61305</v>
+        <v>1075798.7844</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3728637.39684</v>
+        <v>1542921.7016</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3523230.38024</v>
+        <v>1761810.9531</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4872755.52257</v>
+        <v>3248814.46497</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7247295.87296</v>
+        <v>3191089.25322</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9325923.001540001</v>
+        <v>6997638.77753</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>12696408.33533</v>
+        <v>7986605.90387</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>17075166.71607</v>
+        <v>11727708.59514</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>34965623.72682</v>
+        <v>19028752.47881</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>20075347.7609</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>10950869.11537</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>17340491.896</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>228375.27465</v>
+        <v>27931.65309</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>247066.99011</v>
+        <v>56221.37844</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>229816.1864</v>
+        <v>76910.40234999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>284640.8462</v>
+        <v>140139.79279</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>394226.91418</v>
+        <v>158479.20214</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>448294.80724</v>
+        <v>131456.02866</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>606477.0607099999</v>
+        <v>341636.24831</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>655764.29808</v>
+        <v>316395.09411</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>636532.6674800001</v>
+        <v>273267.17321</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>970877.3922</v>
+        <v>203841.07624</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>857256.2202100001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>225252.14545</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>223593.97</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>295719.7129</v>
+        <v>27814.45643</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>146882.32457</v>
+        <v>86640.19686</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>174498.20458</v>
+        <v>89650.72479000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>332520.69074</v>
+        <v>142351.68703</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>545314.0536799999</v>
+        <v>539089.4816300001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1076539.11374</v>
+        <v>176500.21577</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>547451.5976399999</v>
+        <v>174002.30085</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>667759.04449</v>
+        <v>167272.76572</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1163039.90393</v>
+        <v>641520.74172</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3751323.96992</v>
+        <v>3136869.8262</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1887718.22693</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1636013.51116</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2158966.747</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>316198.84443</v>
+        <v>155825.84351</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>313445.42501</v>
+        <v>154501.25879</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>444835.72209</v>
+        <v>235722.52234</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>444437.0456</v>
+        <v>239217.45823</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>468548.83982</v>
+        <v>292829.64123</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>731681.8467999999</v>
+        <v>403219.64438</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>849633.54397</v>
+        <v>635654.20771</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1228619.71444</v>
+        <v>639673.7689400001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1774207.14289</v>
+        <v>1056595.85733</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2286813.03788</v>
+        <v>933470.61679</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2342668.2442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>896720.25361</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>991882.718</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3334.1229</v>
+        <v>1531.96446</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>689.7740600000001</v>
+        <v>184.17497</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>521.06418</v>
+        <v>255.73262</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2442.38311</v>
+        <v>945.5757600000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3050.50034</v>
+        <v>2420.94252</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1981.96209</v>
+        <v>358.83892</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>13609.69544</v>
+        <v>790.00563</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>9990.89025</v>
+        <v>5607.252860000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>23069.52322</v>
+        <v>10234.33477</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>52314.08682</v>
+        <v>17552.78676</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>24655.71368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3259.89597</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>985.825</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>71403.88193</v>
+        <v>1048.96096</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>73706.95087999999</v>
+        <v>2330.5852</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>199053.69941</v>
+        <v>5667.80589</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>199720.15754</v>
+        <v>6805.327230000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>204615.54232</v>
+        <v>6743.056280000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>244898.32709</v>
+        <v>47348.80234</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>18054.8307</v>
+        <v>13338.80565</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>48185.11603</v>
+        <v>38732.47297</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>12724.68722</v>
+        <v>7918.853440000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>23661.31506</v>
+        <v>9758.363160000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>56734.92081</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>40986.88524</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8482.705</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>56860.29585</v>
+        <v>23972.68932</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>86361.48046000001</v>
+        <v>44108.5559</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>182575.29222</v>
+        <v>92674.39728</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>188167.6449</v>
+        <v>161510.61402</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>469725.0589600001</v>
+        <v>445902.77355</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>50046.11342</v>
+        <v>16975.33111</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>150958.14226</v>
+        <v>250438.24348</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>157403.78966</v>
+        <v>99445.86175</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>481012.5922</v>
+        <v>354624.47929</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>277008.10292</v>
+        <v>198837.66609</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>617580.98763</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>107477.20991</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>220230.718</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1074741.28188</v>
+        <v>540003.74312</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1267432.85077</v>
+        <v>557791.04188</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2018020.81249</v>
+        <v>816725.57709</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1478515.65579</v>
+        <v>740396.9007</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1811617.69088</v>
+        <v>1158392.4987</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3496217.10243</v>
+        <v>1750646.8946</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5839520.49887</v>
+        <v>4506480.83239</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8148684.5891</v>
+        <v>5592432.4152</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>10547100.55296</v>
+        <v>7634199.904859999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>24691514.45498</v>
+        <v>12760044.46452</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10542551.76218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6410807.51831</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12580937.278</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>27253.81187</v>
+        <v>16475.3216</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>21001.50758</v>
+        <v>16565.63926</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>41261.68436</v>
+        <v>25089.4225</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>63255.23088</v>
+        <v>57637.47481</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>90972.52212000001</v>
+        <v>89338.96767</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>80194.23037999999</v>
+        <v>78001.39423000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>204292.14801</v>
+        <v>203831.25722</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>194760.12805</v>
+        <v>185297.73735</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>306730.8075</v>
+        <v>288415.01549</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>211266.88513</v>
+        <v>85261.65035</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>166889.31983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>34000.73656</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>33532.963</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1052.49624</v>
+        <v>863.4868100000001</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>37807.17469</v>
+        <v>37321.43806</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>2086.01645</v>
+        <v>1003.2329</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>267.18074</v>
+        <v>56.49892</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>231.65115</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>13.44343</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>946.06222</v>
+        <v>469.55124</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>608.11884</v>
+        <v>189.18041</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>3311.17837</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>1898.32602</v>
@@ -2113,905 +2164,1023 @@
       <c r="M34" s="48" t="n">
         <v>2133.61659</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>2759.722</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>276414.06981</v>
+        <v>132744.31386</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>647804.13492</v>
+        <v>120134.51504</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>435968.71466</v>
+        <v>199221.88384</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>529263.54474</v>
+        <v>272749.62361</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>884452.7491200001</v>
+        <v>555617.90125</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1117428.92634</v>
+        <v>586582.1032100001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1094979.42172</v>
+        <v>870997.32505</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1584632.64639</v>
+        <v>941559.3545599999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2127437.6603</v>
+        <v>1460932.23503</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2698946.15589</v>
+        <v>1681217.70268</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3577158.74884</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1594217.34257</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1119119.25</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1360985.81842</v>
+        <v>660463.94375</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1366860.34881</v>
+        <v>639483.38749</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2601429.63045</v>
+        <v>1110768.11942</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1571920.0943</v>
+        <v>869438.26031</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3002756.1851</v>
+        <v>2047995.80388</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3844311.4761</v>
+        <v>1941428.04807</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8307024.79476</v>
+        <v>6429765.773890001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>11257348.0715</v>
+        <v>7701309.40634</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>14252162.72688</v>
+        <v>10314638.00266</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>34118658.12627</v>
+        <v>19780946.89663</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14365999.07594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8925802.932739999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>15384384.852</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2547.16665</v>
+        <v>1254.88686</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2487.76775</v>
+        <v>1208.64585</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2671.88633</v>
+        <v>1041.07674</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5464.597350000001</v>
+        <v>2144.93003</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>4563.06703</v>
+        <v>2844.97925</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10540.77192</v>
+        <v>9438.28392</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6384.400360000001</v>
+        <v>4576.06675</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>9844.183709999999</v>
+        <v>4984.90096</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>19093.71587</v>
+        <v>7367.774820000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>12757.93958</v>
+        <v>9880.09259</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>48913.09682999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>46154.85745</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>13573.936</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>28030.33205</v>
+        <v>11561.00642</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>34499.11333</v>
+        <v>22676.70425</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>11554.74615</v>
+        <v>4249.1259</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>51088.09084</v>
+        <v>38156.43006</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>27793.20638</v>
+        <v>45335.77522</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>53411.11414</v>
+        <v>41150.39903</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>147887.29743</v>
+        <v>141152.40684</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>116439.9633</v>
+        <v>67302.33489</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>188117.80199</v>
+        <v>134600.58719</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>190860.71579</v>
+        <v>125363.32888</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>259554.50724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>191736.00254</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>62905.84</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>20273.13318</v>
+        <v>14602.38929</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>9005.7647</v>
+        <v>4381.2485</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>24884.95964</v>
+        <v>10510.02175</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>23489.50395</v>
+        <v>10836.75012</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>61527.82167</v>
+        <v>10101.79264</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>22342.632</v>
+        <v>7717.3427</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>56272.4921</v>
+        <v>66663.35852000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>59632.72127</v>
+        <v>48350.01575</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>323101.83896</v>
+        <v>262758.93439</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>163148.31192</v>
+        <v>87952.5978</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>96186.11139000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>80183.31449999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>12877.35</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>987509.1551999999</v>
+        <v>512279.69694</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1146115.08193</v>
+        <v>486451.87546</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2318129.82057</v>
+        <v>934755.80183</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1146431.55893</v>
+        <v>576333.46675</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2295370.83264</v>
+        <v>1534470.97824</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3287307.13065</v>
+        <v>1561413.02695</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7339792.783729999</v>
+        <v>5478606.82013</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10291621.08261</v>
+        <v>7038835.821239999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>11830715.03974</v>
+        <v>8571924.74162</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>30305835.27634</v>
+        <v>16804732.33144</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>12588787.51583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7942381.748</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>14394297.952</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>24118.59305</v>
+        <v>13427.57186</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>20477.72252</v>
+        <v>15126.76268</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>42381.55122</v>
+        <v>27711.61941</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>71962.87543</v>
+        <v>64195.29946</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>93836.69372</v>
+        <v>92365.85265</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>92366.74356999999</v>
+        <v>71184.32784</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>217705.75099</v>
+        <v>210162.38995</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>254406.19513</v>
+        <v>238353.39232</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>302539.85368</v>
+        <v>286617.17101</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>223230.4697</v>
+        <v>93620.15635999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>148248.02177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>12803.29852</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>31637.098</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>834.8607200000001</v>
+        <v>683.7065699999999</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>37166.14427</v>
+        <v>36510.48052</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>1186.73539</v>
+        <v>891.74064</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>1159.40384</v>
+        <v>1150.9794</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>12.3848</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>812.06042</v>
+        <v>97.71267999999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>3414.47444</v>
+        <v>23.46136</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>516.36038</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>427.41208</v>
+        <v>426.37806</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>203.83128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>297672.57757</v>
+        <v>106654.68581</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>117108.75431</v>
+        <v>73127.67023</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>200619.93115</v>
+        <v>131608.73315</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>272324.0639600001</v>
+        <v>176620.40449</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>519652.17886</v>
+        <v>362876.42588</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>377531.0233999999</v>
+        <v>250426.95495</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>535567.59571</v>
+        <v>528581.2703399999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>524887.5651</v>
+        <v>303482.94118</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1588167.06456</v>
+        <v>1050942.41557</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3222825.41294</v>
+        <v>2659398.38956</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1224105.9916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>652543.71173</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>869092.676</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>855843.49164</v>
+        <v>483375.45177</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>816295.6538000001</v>
+        <v>445231.16389</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1134083.354</v>
+        <v>596967.3917</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1265776.16486</v>
+        <v>727447.09572</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1451813.12679</v>
+        <v>773132.0186599999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2228542.52122</v>
+        <v>1177221.6173</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3093852.19795</v>
+        <v>1971589.61552</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4793991.41394</v>
+        <v>2703389.0802</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6472235.1722</v>
+        <v>3718825.93174</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11610405.91212</v>
+        <v>5445917.54087</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>10839447.70377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5332952.38272</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7129097.952</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>631717.4267099999</v>
+        <v>360200.45819</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>617299.0043200001</v>
+        <v>362111.63812</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>879203.26254</v>
+        <v>446583.53691</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1005681.85506</v>
+        <v>605292.6312000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1161749.36439</v>
+        <v>652852.9784400001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1900956.71533</v>
+        <v>1008630.96514</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2645911.353850001</v>
+        <v>1805095.96535</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4286869.185020001</v>
+        <v>2432921.15145</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5652787.49784</v>
+        <v>3182613.43494</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9654395.537700001</v>
+        <v>4728104.407430001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>9604833.31099</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4719513.0713</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6210301.544</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>224126.06493</v>
+        <v>123174.99358</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>198996.64948</v>
+        <v>83119.52576999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>254880.09146</v>
+        <v>150383.85479</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>260094.3098</v>
+        <v>122154.46452</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>290063.7623999999</v>
+        <v>120279.04022</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>327585.80589</v>
+        <v>168590.65216</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>447940.8441</v>
+        <v>166493.65017</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>507122.22892</v>
+        <v>270467.92875</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>819447.6743600001</v>
+        <v>536212.4968</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1956010.37442</v>
+        <v>717813.13344</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1234614.39278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>613439.3114199999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>918796.4080000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1359603.03736</v>
+        <v>967858.8510199999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1782582.68598</v>
+        <v>1092655.50477</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2167762.98409</v>
+        <v>2057116.96698</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3218967.70658</v>
+        <v>2561512.96616</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2814048.53268</v>
+        <v>2902429.40802</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3202693.99592</v>
+        <v>1813120.36921</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1080217.82381</v>
+        <v>1409998.6066</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>107246.37236</v>
+        <v>651626.97615</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2729407.59768</v>
+        <v>3376887.09438</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-4929280.236</v>
+        <v>-1464445.80929</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3938631.53576</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4414273.3893</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2225610.182</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>405007.4682</v>
+        <v>172661.88571</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>733354.99259</v>
+        <v>441903.62759</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>575378.99967</v>
+        <v>262281.75386</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1307302.34473</v>
+        <v>1078138.77048</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>549083.03528</v>
+        <v>341574.62182</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1430130.06029</v>
+        <v>652145.3131499999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1063764.67504</v>
+        <v>529644.97585</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1819867.16516</v>
+        <v>720334.1800299999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2523725.58588</v>
+        <v>1756358.78329</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2247821.20941</v>
+        <v>1169253.64151</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1894767.80762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>913855.8751000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2470628.086</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>60494.81252000001</v>
+        <v>30033.79474</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>28632.92064</v>
+        <v>13896.06113</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>82273.70272</v>
+        <v>45745.39764</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>67238.02812999999</v>
+        <v>56945.83354</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>64452.03542</v>
+        <v>37812.28122</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>48529.06912</v>
+        <v>40437.59031</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>55309.45132</v>
+        <v>56212.94549000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>86702.83679999999</v>
+        <v>67355.01845999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>290049.92538</v>
+        <v>229656.92021</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>121022.83553</v>
+        <v>104967.68392</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>128612.02235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>70786.55158</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>108570.075</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>344512.65568</v>
+        <v>142628.09097</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>704722.07195</v>
+        <v>428007.56646</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>493105.29695</v>
+        <v>216536.35622</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1240064.3166</v>
+        <v>1021192.93694</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>484630.99986</v>
+        <v>303762.3406</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1381600.99117</v>
+        <v>611707.7228400001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1008455.22372</v>
+        <v>473432.03036</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1733164.32836</v>
+        <v>652979.16157</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2233675.6605</v>
+        <v>1526701.86308</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2126798.37388</v>
+        <v>1064285.95759</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1766155.78527</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>843069.32352</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2362058.011</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>408949.2152</v>
+        <v>265859.76958</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>429900.0286799999</v>
+        <v>274301.29035</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1651256.0037</v>
+        <v>746424.66489</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>864564.1294000001</v>
+        <v>590574.24748</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>596295.04242</v>
+        <v>452901.47228</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2003753.79384</v>
+        <v>1175062.90172</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1315204.96253</v>
+        <v>1077213.8749</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2942205.08931</v>
+        <v>2111265.76617</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2638655.5069</v>
+        <v>2012850.75794</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2019614.28852</v>
+        <v>1125426.35529</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2454226.50162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1437718.14569</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1753678.128</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>26872.65049</v>
+        <v>9175.386640000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>20892.1861</v>
+        <v>3422.82849</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>23499.1473</v>
+        <v>6400.46216</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>11125.25886</v>
+        <v>6987.80268</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>10227.50394</v>
+        <v>8974.49158</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>14534.53102</v>
+        <v>7941.8467</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>25529.80865</v>
+        <v>6861.13283</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>36323.17067</v>
+        <v>8041.63858</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>31469.40866</v>
+        <v>10759.5523</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>19738.34323</v>
+        <v>10492.29041</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>18074.71698</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>12091.43764</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6647.242</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>73545.13567</v>
+        <v>51249.86801</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>84098.54255</v>
+        <v>48622.30347</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>91070.61705</v>
+        <v>50977.84342</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>122636.99436</v>
+        <v>99584.84858000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>109167.96551</v>
+        <v>72611.07467</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>141680.48068</v>
+        <v>106376.85461</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>181873.02661</v>
+        <v>159595.17601</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>388214.04423</v>
+        <v>338829.37105</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>406333.45638</v>
+        <v>323506.20126</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>229311.271</v>
+        <v>170147.92085</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>279890.52838</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>182532.56249</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>239913.909</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>308531.42904</v>
+        <v>205434.51493</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>324909.30003</v>
+        <v>222256.15839</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1536686.23935</v>
+        <v>689046.35931</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>730801.87618</v>
+        <v>484001.5962199999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>476899.57297</v>
+        <v>371315.90603</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1847538.78214</v>
+        <v>1060744.20041</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1107802.12727</v>
+        <v>910757.56606</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2517667.87441</v>
+        <v>1764394.75654</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2200852.64186</v>
+        <v>1678585.00438</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1770564.67429</v>
+        <v>944786.14403</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2156261.25626</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1243094.14556</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1507116.977</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1355661.29036</v>
+        <v>874660.9671499999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2086037.64989</v>
+        <v>1260257.84201</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1091885.98006</v>
+        <v>1572974.05595</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3661705.92191</v>
+        <v>3049077.48916</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2766836.52554</v>
+        <v>2791102.55756</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2629070.26237</v>
+        <v>1290202.78064</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>828777.53632</v>
+        <v>862429.7075500001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1015091.55179</v>
+        <v>-739304.60999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2614477.67666</v>
+        <v>3120395.11973</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4701073.31511</v>
+        <v>-1420618.52307</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3379172.84176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3890411.11871</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2942560.14</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>255175.5597</v>
+        <v>182414.10958</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>259821.88782</v>
+        <v>176056.69923</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>395898.43855</v>
+        <v>308686.90393</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>535958.74985</v>
+        <v>440040.68833</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>439953.30014</v>
+        <v>352815.24226</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>487086.87853</v>
+        <v>345391.27581</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>657849.8604400001</v>
+        <v>538693.1645800001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>871981.5099200001</v>
+        <v>707487.96801</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>986215.5649999999</v>
+        <v>772460.9003099999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>764698.13274</v>
+        <v>477873.59989</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1177975.18779</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>743616.97985</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1190315.799</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1100485.73066</v>
+        <v>692246.8575700001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1826215.76207</v>
+        <v>1084201.14278</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>695987.54151</v>
+        <v>1264287.15202</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3125747.17206</v>
+        <v>2609036.80083</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2326883.225399999</v>
+        <v>2438287.3153</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2141983.38384</v>
+        <v>944811.50483</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>170927.67588</v>
+        <v>323736.54297</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1887073.06171</v>
+        <v>-1446792.578</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1628262.11166</v>
+        <v>2347934.21942</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5465771.44785</v>
+        <v>-1898492.12296</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2201197.65397</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3146794.13886</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1752244.341</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>736</v>
+        <v>220</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>822</v>
+        <v>219</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1052</v>
+        <v>316</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1264</v>
+        <v>382</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>984</v>
+        <v>331</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1205</v>
+        <v>385</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1378</v>
+        <v>431</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1736</v>
+        <v>474</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2089</v>
+        <v>591</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>788</v>
+        <v>311</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>251</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>